--- a/data/suma_pcss.xlsx
+++ b/data/suma_pcss.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8A19DB-DAB3-6742-AAB4-67097C8470F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A23AE8E-EACE-EA46-A747-188D2F5486AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33900" yWindow="2940" windowWidth="27640" windowHeight="15840" xr2:uid="{1417FC77-75B3-4941-A290-469E467A24A6}"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="27640" windowHeight="15840" xr2:uid="{1417FC77-75B3-4941-A290-469E467A24A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Symptom</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Visual problems</t>
+  </si>
+  <si>
+    <t>Total Score</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D4FB04-C8DE-DB4F-82F2-E06CD3FE9406}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -490,6 +493,9 @@
       <c r="B2">
         <v>5</v>
       </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -498,12 +504,18 @@
       <c r="B3">
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
@@ -514,6 +526,9 @@
       <c r="B5">
         <v>5</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -522,6 +537,9 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -530,6 +548,9 @@
       <c r="B7">
         <v>3</v>
       </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
@@ -538,6 +559,9 @@
       <c r="B8">
         <v>3</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -546,6 +570,9 @@
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
@@ -554,6 +581,9 @@
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
@@ -562,6 +592,9 @@
       <c r="B11">
         <v>5</v>
       </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
@@ -570,6 +603,9 @@
       <c r="B12">
         <v>5</v>
       </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
@@ -578,6 +614,9 @@
       <c r="B13">
         <v>5</v>
       </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
@@ -586,6 +625,9 @@
       <c r="B14">
         <v>0</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
@@ -594,6 +636,9 @@
       <c r="B15">
         <v>0</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
@@ -602,61 +647,98 @@
       <c r="B16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
         <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <f>SUM(B2:B23)</f>
+        <v>68</v>
+      </c>
+      <c r="C24">
+        <f>SUM(C2:C23)</f>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
